--- a/data/cap_poh/capacidade_tecnologias.xlsx
+++ b/data/cap_poh/capacidade_tecnologias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIL\Desktop\Projeto_leao\V4\simulador_dre_streamlit\data\cap_poh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E342DA2-AA8B-44C6-BC1F-C24701E5439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C4299-54CF-41AE-8A05-28DB9D3D1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7D021AAA-07A4-4517-AB72-9334F71245B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tecnologia</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Capacidade</t>
+  </si>
+  <si>
+    <t>Toll Packer</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B134D0-7754-49B9-BD6A-E9B1AF61713C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +517,14 @@
         <v>1300000</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
